--- a/ch02-describing-data-tables-graphs/check-2.9.xlsx
+++ b/ch02-describing-data-tables-graphs/check-2.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\statistics-11-edition-exercises\ch02-describing-data-tables-graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C018CF-7A0B-4931-903C-E15E1D57EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B04391-2A8B-4295-9479-EE2216D8DF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Total</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>left lopsided</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2506,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2515,7 +2523,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2530,7 +2540,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2580,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="4">
-        <f>(G9+H9)/2</f>
+        <f t="shared" ref="C9:C22" si="0">(G9+H9)/2</f>
         <v>134999.5</v>
       </c>
       <c r="D9" s="4">
@@ -2608,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <f>(G10+H10)/2</f>
+        <f t="shared" si="0"/>
         <v>124999.5</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" ref="F10:F22" si="0">SEARCH("-",B10)</f>
+        <f t="shared" ref="F10:F22" si="1">SEARCH("-",B10)</f>
         <v>7</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" ref="G10:G22" si="1">LEFT(B10,F10-1)</f>
+        <f t="shared" ref="G10:G22" si="2">LEFT(B10,F10-1)</f>
         <v>120000</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" ref="H10:H22" si="2">RIGHT(B10,LEN(B10)-SEARCH("-",B10))</f>
+        <f t="shared" ref="H10:H22" si="3">RIGHT(B10,LEN(B10)-SEARCH("-",B10))</f>
         <v>129999</v>
       </c>
       <c r="I10" s="8"/>
@@ -2636,22 +2648,22 @@
         <v>12</v>
       </c>
       <c r="C11" s="4">
-        <f>(G11+H11)/2</f>
+        <f t="shared" si="0"/>
         <v>114999.5</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110000</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119999</v>
       </c>
       <c r="I11" s="8"/>
@@ -2664,22 +2676,22 @@
         <v>13</v>
       </c>
       <c r="C12" s="4">
-        <f>(G12+H12)/2</f>
+        <f t="shared" si="0"/>
         <v>104999.5</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109999</v>
       </c>
       <c r="I12" s="8"/>
@@ -2692,22 +2704,22 @@
         <v>14</v>
       </c>
       <c r="C13" s="4">
-        <f>(G13+H13)/2</f>
+        <f t="shared" si="0"/>
         <v>94999.5</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99999</v>
       </c>
       <c r="I13" s="8"/>
@@ -2720,22 +2732,22 @@
         <v>15</v>
       </c>
       <c r="C14" s="4">
-        <f>(G14+H14)/2</f>
+        <f t="shared" si="0"/>
         <v>84999.5</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80000</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89999</v>
       </c>
       <c r="I14" s="8"/>
@@ -2748,22 +2760,22 @@
         <v>16</v>
       </c>
       <c r="C15" s="4">
-        <f>(G15+H15)/2</f>
+        <f t="shared" si="0"/>
         <v>74999.5</v>
       </c>
       <c r="D15" s="4">
         <v>7</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70000</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79999</v>
       </c>
       <c r="I15" s="8"/>
@@ -2776,22 +2788,22 @@
         <v>17</v>
       </c>
       <c r="C16" s="4">
-        <f>(G16+H16)/2</f>
+        <f t="shared" si="0"/>
         <v>64999.5</v>
       </c>
       <c r="D16" s="6">
         <v>10</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60000</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69999</v>
       </c>
       <c r="I16" s="4"/>
@@ -2804,22 +2816,22 @@
         <v>18</v>
       </c>
       <c r="C17" s="4">
-        <f>(G17+H17)/2</f>
+        <f t="shared" si="0"/>
         <v>54999.5</v>
       </c>
       <c r="D17" s="4">
         <v>14</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59999</v>
       </c>
       <c r="I17" s="4"/>
@@ -2832,22 +2844,22 @@
         <v>19</v>
       </c>
       <c r="C18" s="4">
-        <f>(G18+H18)/2</f>
+        <f t="shared" si="0"/>
         <v>44999.5</v>
       </c>
       <c r="D18" s="5">
         <v>23</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49999</v>
       </c>
       <c r="I18" s="4"/>
@@ -2860,22 +2872,22 @@
         <v>20</v>
       </c>
       <c r="C19" s="4">
-        <f>(G19+H19)/2</f>
+        <f t="shared" si="0"/>
         <v>34999.5</v>
       </c>
       <c r="D19" s="4">
         <v>17</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39999</v>
       </c>
       <c r="I19" s="4"/>
@@ -2888,22 +2900,22 @@
         <v>21</v>
       </c>
       <c r="C20" s="4">
-        <f>(G20+H20)/2</f>
+        <f t="shared" si="0"/>
         <v>24999.5</v>
       </c>
       <c r="D20" s="4">
         <v>10</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29999</v>
       </c>
       <c r="I20" s="4"/>
@@ -2915,22 +2927,22 @@
         <v>22</v>
       </c>
       <c r="C21" s="4">
-        <f>(G21+H21)/2</f>
+        <f t="shared" si="0"/>
         <v>14999.5</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19999</v>
       </c>
       <c r="I21" s="4"/>
@@ -2942,22 +2954,22 @@
         <v>23</v>
       </c>
       <c r="C22" s="4">
-        <f>(G22+H22)/2</f>
+        <f t="shared" si="0"/>
         <v>4999.5</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9999</v>
       </c>
       <c r="I22" s="4"/>
